--- a/biology/Zoologie/Calyptocephalella_gayi/Calyptocephalella_gayi.xlsx
+++ b/biology/Zoologie/Calyptocephalella_gayi/Calyptocephalella_gayi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calyptocephalella gayi, unique représentant du genre Calyptocephalella, est une espèce d'amphibiens de la famille des Calyptocephalellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calyptocephalella gayi, unique représentant du genre Calyptocephalella, est une espèce d'amphibiens de la famille des Calyptocephalellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Chili[1]. Elle se rencontre de Coquimbo à Puerto Montt entre le niveau de la mer et 500 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Chili. Elle se rencontre de Coquimbo à Puerto Montt entre le niveau de la mer et 500 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent jusqu'à 120 mm et les femelles jusqu'à 320 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent jusqu'à 120 mm et les femelles jusqu'à 320 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Myers et Stothers en 2006[3], le genre Caudiverbera Laurenti, 1768 est invalide car basé sur un animal composite et fictif, Caudiverbera peruviana Laurenti, 1768. Le nom valable de cette espèce est donc Calyptocephalella gayi Duméril &amp; Bibron, 1841 et non Caudiverbera caudiverbera (Linnaeus, 1758).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Myers et Stothers en 2006, le genre Caudiverbera Laurenti, 1768 est invalide car basé sur un animal composite et fictif, Caudiverbera peruviana Laurenti, 1768. Le nom valable de cette espèce est donc Calyptocephalella gayi Duméril &amp; Bibron, 1841 et non Caudiverbera caudiverbera (Linnaeus, 1758).
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Claude Gay[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Claude Gay.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1841 : Erpétologie générale ou Histoire naturelle complète des reptiles, vol. 8, p. 1-792 (texte intégral).
 Strand, 1928 : Miscellanea nomenclatorica zoologica et palaeontologica. Archiv Für Naturgeschichte (A), vol. 92, no 8, p. 30-75.</t>
